--- a/ERP_GMEDINA/Downloadable files/ArchivoEmpleados (6).xlsx
+++ b/ERP_GMEDINA/Downloadable files/ArchivoEmpleados (6).xlsx
@@ -534,11 +534,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:MG10000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -848,55 +848,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:345">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="MA1" s="3" t="s">
@@ -922,55 +922,55 @@
       </c>
     </row>
     <row r="2" spans="1:345">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="MA2" s="3" t="s">
@@ -993,55 +993,55 @@
       </c>
     </row>
     <row r="3" spans="1:345">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="MA3" s="3" t="s">
@@ -1138,10 +1138,10 @@
       <c r="A5" s="1">
         <v>501200102121</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="2">
@@ -1153,19 +1153,19 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H5">
         <v>98610208</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J5" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>124</v>
       </c>
       <c r="L5" t="s">
@@ -1209,10 +1209,10 @@
       <c r="A6" s="1">
         <v>501199901427</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="2">
@@ -1224,13 +1224,13 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>128</v>
       </c>
       <c r="H6">
         <v>88826656</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>132</v>
       </c>
       <c r="J6" t="s">
@@ -1277,10 +1277,10 @@
       <c r="A7" s="1">
         <v>501199911032</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="2">
@@ -1292,19 +1292,19 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>131</v>
       </c>
       <c r="H7">
         <v>94866095</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>135</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="L7" t="s">
@@ -1348,10 +1348,10 @@
       <c r="A8" s="1">
         <v>1707199700244</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="2">
@@ -1363,19 +1363,19 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>136</v>
       </c>
       <c r="H8">
         <v>95984185</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J8" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>142</v>
       </c>
       <c r="L8" t="s">
@@ -1416,27 +1416,31 @@
       </c>
     </row>
     <row r="9" spans="1:345">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="1">
+        <v>501199707964</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>35756</v>
+      </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>137</v>
       </c>
       <c r="H9">
         <v>98915694</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>139</v>
       </c>
       <c r="J9" t="s">
